--- a/2023_02_07/dummy2.xlsx
+++ b/2023_02_07/dummy2.xlsx
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5162,7 +5162,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
